--- a/Iran/Iran_Shahram/2018/001-Pipe project/供货商/20180505---沧州，13315798796，沧州金庆管件制造/报2018-5-5 香港零度贸易.xlsx
+++ b/Iran/Iran_Shahram/2018/001-Pipe project/供货商/20180505---沧州，13315798796，沧州金庆管件制造/报2018-5-5 香港零度贸易.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\XU\ODO\Iran\Iran_Shahram\2018\001-Pipe project\供货商\20180505---沧州，13315798796，沧州金庆管件制造\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="57">
   <si>
     <t>ROW</t>
   </si>
@@ -190,15 +195,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,348 +211,25 @@
       <sz val="13"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -574,251 +252,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -826,7 +262,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -839,61 +275,17 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1151,21 +543,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="1" max="1" width="7.875" customWidth="1"/>
     <col min="2" max="2" width="36.625" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
     <col min="4" max="4" width="6.125" customWidth="1"/>
@@ -1173,7 +565,7 @@
     <col min="6" max="6" width="10.375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" spans="1:6">
+    <row r="1" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1193,7 +585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="17.25" spans="1:6">
+    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1214,7 +606,7 @@
         <v>11310</v>
       </c>
     </row>
-    <row r="3" ht="17.25" spans="1:6">
+    <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1235,7 +627,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="4" ht="17.25" spans="1:6">
+    <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1256,7 +648,7 @@
         <v>39048</v>
       </c>
     </row>
-    <row r="5" ht="17.25" spans="1:6">
+    <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1277,7 +669,7 @@
         <v>23904</v>
       </c>
     </row>
-    <row r="6" ht="17.25" spans="1:6">
+    <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1298,7 +690,7 @@
         <v>63420</v>
       </c>
     </row>
-    <row r="7" ht="17.25" spans="1:6">
+    <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1319,7 +711,7 @@
         <v>5580</v>
       </c>
     </row>
-    <row r="8" ht="17.25" spans="1:6">
+    <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1340,7 +732,7 @@
         <v>15312</v>
       </c>
     </row>
-    <row r="9" ht="17.25" spans="1:6">
+    <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1361,7 +753,7 @@
         <v>13398</v>
       </c>
     </row>
-    <row r="10" ht="17.25" spans="1:6">
+    <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1382,7 +774,7 @@
         <v>104040</v>
       </c>
     </row>
-    <row r="11" ht="17.25" spans="1:6">
+    <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1403,7 +795,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="12" ht="17.25" spans="1:6">
+    <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1424,7 +816,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="13" ht="17.25" spans="1:6">
+    <row r="13" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1445,7 +837,7 @@
         <v>4260</v>
       </c>
     </row>
-    <row r="14" ht="17.25" spans="1:6">
+    <row r="14" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1466,7 +858,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="15" ht="17.25" spans="1:6">
+    <row r="15" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1487,7 +879,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" ht="17.25" spans="1:6">
+    <row r="16" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1508,7 +900,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="17" ht="17.25" spans="1:6">
+    <row r="17" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1529,7 +921,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="18" ht="17.25" spans="1:6">
+    <row r="18" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1550,7 +942,7 @@
         <v>10430</v>
       </c>
     </row>
-    <row r="19" ht="17.25" spans="1:6">
+    <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1571,7 +963,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="20" ht="17.25" spans="1:6">
+    <row r="20" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1592,7 +984,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="21" ht="17.25" spans="1:6">
+    <row r="21" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1613,7 +1005,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="22" ht="17.25" spans="1:6">
+    <row r="22" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1634,7 +1026,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="23" ht="17.25" spans="1:6">
+    <row r="23" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1655,7 +1047,7 @@
         <v>4848</v>
       </c>
     </row>
-    <row r="24" ht="17.25" spans="1:6">
+    <row r="24" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1676,7 +1068,7 @@
         <v>5480</v>
       </c>
     </row>
-    <row r="25" ht="17.25" spans="1:6">
+    <row r="25" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1697,7 +1089,7 @@
         <v>9724</v>
       </c>
     </row>
-    <row r="26" ht="17.25" spans="1:6">
+    <row r="26" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1718,7 +1110,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="27" ht="17.25" spans="1:6">
+    <row r="27" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1739,7 +1131,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="28" ht="17.25" spans="1:6">
+    <row r="28" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1760,7 +1152,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="29" ht="17.25" spans="1:6">
+    <row r="29" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1781,7 +1173,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="30" ht="17.25" spans="1:6">
+    <row r="30" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1802,7 +1194,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="31" ht="17.25" spans="1:6">
+    <row r="31" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1823,7 +1215,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="32" ht="17.25" spans="1:6">
+    <row r="32" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1844,7 +1236,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="33" ht="17.25" spans="1:6">
+    <row r="33" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1865,7 +1257,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="34" ht="17.25" spans="1:6">
+    <row r="34" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1886,7 +1278,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="35" ht="17.25" spans="1:6">
+    <row r="35" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1907,7 +1299,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="36" ht="17.25" spans="1:6">
+    <row r="36" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1928,7 +1320,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="37" ht="17.25" spans="1:6">
+    <row r="37" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -1949,7 +1341,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="38" ht="17.25" spans="1:6">
+    <row r="38" spans="1:6" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -1970,7 +1362,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="39" ht="17.25" spans="1:6">
+    <row r="39" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -1991,7 +1383,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="40" ht="17.25" spans="1:6">
+    <row r="40" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -2012,7 +1404,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="41" ht="17.25" spans="1:6">
+    <row r="41" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -2033,7 +1425,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="42" ht="17.25" spans="1:6">
+    <row r="42" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -2054,7 +1446,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="43" ht="17.25" spans="1:6">
+    <row r="43" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -2075,7 +1467,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="44" ht="17.25" spans="1:6">
+    <row r="44" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -2096,7 +1488,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="45" ht="17.25" spans="1:6">
+    <row r="45" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -2117,7 +1509,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="46" ht="17.25" spans="1:6">
+    <row r="46" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -2138,7 +1530,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="47" ht="17.25" spans="1:6">
+    <row r="47" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -2159,7 +1551,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="48" ht="17.25" spans="1:6">
+    <row r="48" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -2180,7 +1572,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" ht="17.25" spans="1:6">
+    <row r="49" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -2201,7 +1593,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="50" ht="17.25" spans="1:6">
+    <row r="50" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -2222,7 +1614,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="51" ht="17.25" spans="1:6">
+    <row r="51" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -2243,14 +1635,19 @@
         <v>432</v>
       </c>
     </row>
-    <row r="52" spans="6:6">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F52" s="2">
         <f>SUM(F2:F51)</f>
         <v>347571</v>
       </c>
+      <c r="G52">
+        <f>F52*1.45</f>
+        <v>503977.95</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>